--- a/200_2025改修/詳細設計_2025/1_詳細設計書(メニュー).xlsx
+++ b/200_2025改修/詳細設計_2025/1_詳細設計書(メニュー).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.103\landisk\サントク\202205姫路市VBA\10_仕様書\30_詳細設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\Git001\200_2025改修\詳細設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F83E751-473D-4C16-849E-A0CB6B54548C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C95833-7F11-4893-894A-8E9FC24F83F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="225" windowWidth="21600" windowHeight="15210" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="170" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="83">
   <si>
     <t>作成者</t>
   </si>
@@ -303,13 +303,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作成日：2022/07/05</t>
-    <rPh sb="0" eb="3">
-      <t>サクセイビ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>詳細設計書</t>
     <rPh sb="0" eb="2">
       <t>ショウサイ</t>
@@ -575,6 +568,40 @@
     <t>藤城</t>
     <rPh sb="0" eb="2">
       <t>フジシロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日：2025/04/05</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイビ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CommandButton調整入力</t>
+    <rPh sb="13" eb="15">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CommandButton口座データ</t>
+    <rPh sb="13" eb="15">
+      <t>コウザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CommandButton入金消込</t>
+    <rPh sb="13" eb="15">
+      <t>ニュウキン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケシコミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -587,7 +614,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -699,6 +726,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1060,7 +1095,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1382,6 +1417,13 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1475,22 +1517,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
+      <xdr:colOff>104776</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>35143</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>87047</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>157482</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13024337-69F6-41CA-B53A-067BC0D138B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1085E4B7-5C13-92A1-E244-E6E6D15C2174}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1506,8 +1548,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2" y="809625"/>
-          <a:ext cx="7464641" cy="4011347"/>
+          <a:off x="104776" y="857251"/>
+          <a:ext cx="7291706" cy="4171950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1787,8 +1829,8 @@
   </sheetPr>
   <dimension ref="C1:P23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="22.5" customHeight="1"/>
@@ -1949,7 +1991,7 @@
       <c r="J17" s="60"/>
       <c r="K17" s="61"/>
       <c r="N17" s="7" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="6:16" ht="22.5" customHeight="1">
@@ -1967,7 +2009,7 @@
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
       <c r="P22" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="6:16" ht="22.5" customHeight="1">
@@ -2617,7 +2659,7 @@
   <dimension ref="A1:BF47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:AI1"/>
+      <selection activeCell="BA24" sqref="BA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="11.25"/>
@@ -2651,7 +2693,7 @@
       <c r="S1" s="78"/>
       <c r="T1" s="78"/>
       <c r="U1" s="79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V1" s="80"/>
       <c r="W1" s="80"/>
@@ -3415,10 +3457,10 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3430,7 +3472,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="93"/>
       <c r="C1" s="94" t="s">
@@ -3439,7 +3481,7 @@
       <c r="D1" s="95"/>
       <c r="E1" s="96"/>
       <c r="F1" s="97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G1" s="98"/>
       <c r="H1" s="98"/>
@@ -3488,27 +3530,27 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="92"/>
       <c r="C4" s="92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="92"/>
       <c r="E4" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="G4" s="92" t="s">
         <v>39</v>
-      </c>
-      <c r="G4" s="92" t="s">
-        <v>40</v>
       </c>
       <c r="H4" s="92"/>
       <c r="I4" s="92"/>
       <c r="J4" s="92"/>
       <c r="K4" s="92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L4" s="92"/>
       <c r="M4" s="92"/>
@@ -3524,19 +3566,19 @@
       <c r="D5" s="92"/>
       <c r="E5" s="92"/>
       <c r="F5" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="H5" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="I5" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="J5" s="38" t="s">
         <v>45</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>46</v>
       </c>
       <c r="K5" s="92"/>
       <c r="L5" s="92"/>
@@ -3553,21 +3595,21 @@
       </c>
       <c r="B6" s="92"/>
       <c r="C6" s="92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="92"/>
       <c r="E6" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
       <c r="J6" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K6" s="100" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L6" s="100"/>
       <c r="M6" s="100"/>
@@ -3583,11 +3625,11 @@
       </c>
       <c r="B7" s="92"/>
       <c r="C7" s="92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="92"/>
       <c r="E7" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
@@ -3595,7 +3637,7 @@
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
       <c r="K7" s="100" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L7" s="100"/>
       <c r="M7" s="100"/>
@@ -3611,21 +3653,21 @@
       </c>
       <c r="B8" s="92"/>
       <c r="C8" s="92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="92"/>
       <c r="E8" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
       <c r="J8" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K8" s="100" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L8" s="100"/>
       <c r="M8" s="100"/>
@@ -3636,26 +3678,26 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="92" t="str">
-        <f t="shared" ref="A9:A27" si="0">MID(K9,14,20)</f>
+        <f t="shared" ref="A9:A30" si="0">MID(K9,14,20)</f>
         <v>徴収簿</v>
       </c>
       <c r="B9" s="92"/>
       <c r="C9" s="92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="92"/>
       <c r="E9" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
       <c r="J9" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K9" s="100" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L9" s="100"/>
       <c r="M9" s="100"/>
@@ -3671,21 +3713,21 @@
       </c>
       <c r="B10" s="92"/>
       <c r="C10" s="92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="92"/>
       <c r="E10" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K10" s="100" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L10" s="100"/>
       <c r="M10" s="100"/>
@@ -3696,15 +3738,15 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="92" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="92"/>
       <c r="C11" s="92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="92"/>
       <c r="E11" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
@@ -3712,7 +3754,7 @@
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
       <c r="K11" s="100" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L11" s="100"/>
       <c r="M11" s="100"/>
@@ -3728,21 +3770,21 @@
       </c>
       <c r="B12" s="92"/>
       <c r="C12" s="92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="92"/>
       <c r="E12" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
       <c r="J12" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K12" s="100" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L12" s="100"/>
       <c r="M12" s="100"/>
@@ -3758,21 +3800,21 @@
       </c>
       <c r="B13" s="92"/>
       <c r="C13" s="92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="92"/>
       <c r="E13" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
       <c r="J13" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K13" s="100" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L13" s="100"/>
       <c r="M13" s="100"/>
@@ -3788,21 +3830,21 @@
       </c>
       <c r="B14" s="92"/>
       <c r="C14" s="92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="92"/>
       <c r="E14" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
       <c r="J14" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K14" s="100" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L14" s="100"/>
       <c r="M14" s="100"/>
@@ -3812,121 +3854,120 @@
       <c r="Q14" s="100"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="102"/>
-      <c r="B15" s="103"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="40"/>
+      <c r="A15" s="117" t="str">
+        <f t="shared" ref="A15" si="1">MID(K15,14,20)</f>
+        <v>調整入力</v>
+      </c>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="117"/>
+      <c r="E15" s="118" t="s">
+        <v>47</v>
+      </c>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
       <c r="J15" s="38"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="105"/>
-      <c r="N15" s="105"/>
-      <c r="O15" s="105"/>
-      <c r="P15" s="105"/>
-      <c r="Q15" s="106"/>
+      <c r="K15" s="116" t="s">
+        <v>80</v>
+      </c>
+      <c r="L15" s="116"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="116"/>
+      <c r="O15" s="116"/>
+      <c r="P15" s="116"/>
+      <c r="Q15" s="116"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>口径</v>
-      </c>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92" t="s">
+      <c r="A16" s="117" t="str">
+        <f t="shared" ref="A16:A17" si="2">MID(K16,14,20)</f>
+        <v>口座データ</v>
+      </c>
+      <c r="B16" s="117"/>
+      <c r="C16" s="117" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="117"/>
+      <c r="E16" s="118" t="s">
         <v>47</v>
-      </c>
-      <c r="D16" s="92"/>
-      <c r="E16" s="40" t="s">
-        <v>48</v>
       </c>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
       <c r="J16" s="38"/>
-      <c r="K16" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" s="100"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="100"/>
+      <c r="K16" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="116"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="116"/>
+      <c r="O16" s="116"/>
+      <c r="P16" s="116"/>
+      <c r="Q16" s="116"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>按分設定</v>
-      </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92" t="s">
+      <c r="A17" s="117" t="str">
+        <f t="shared" si="2"/>
+        <v>入金消込</v>
+      </c>
+      <c r="B17" s="117"/>
+      <c r="C17" s="117" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="117"/>
+      <c r="E17" s="118" t="s">
         <v>47</v>
-      </c>
-      <c r="D17" s="92"/>
-      <c r="E17" s="40" t="s">
-        <v>48</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="38"/>
       <c r="I17" s="38"/>
-      <c r="J17" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17" s="100" t="s">
-        <v>64</v>
-      </c>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="100"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="116" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="116"/>
+      <c r="M17" s="116"/>
+      <c r="N17" s="116"/>
+      <c r="O17" s="116"/>
+      <c r="P17" s="116"/>
+      <c r="Q17" s="116"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>種別</v>
-      </c>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="92"/>
-      <c r="E18" s="40" t="s">
-        <v>48</v>
-      </c>
+      <c r="A18" s="102"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="40"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
       <c r="I18" s="38"/>
       <c r="J18" s="38"/>
-      <c r="K18" s="100" t="s">
-        <v>65</v>
-      </c>
-      <c r="L18" s="100"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="100"/>
-      <c r="O18" s="100"/>
-      <c r="P18" s="100"/>
-      <c r="Q18" s="100"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="106"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="92" t="s">
-        <v>78</v>
+      <c r="A19" s="92" t="str">
+        <f t="shared" si="0"/>
+        <v>口径</v>
       </c>
       <c r="B19" s="92"/>
       <c r="C19" s="92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="92"/>
       <c r="E19" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
@@ -3934,7 +3975,7 @@
       <c r="I19" s="38"/>
       <c r="J19" s="38"/>
       <c r="K19" s="100" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="L19" s="100"/>
       <c r="M19" s="100"/>
@@ -3946,25 +3987,25 @@
     <row r="20" spans="1:17">
       <c r="A20" s="92" t="str">
         <f t="shared" si="0"/>
-        <v>面積単価</v>
+        <v>按分設定</v>
       </c>
       <c r="B20" s="92"/>
       <c r="C20" s="92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="92"/>
       <c r="E20" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
       <c r="J20" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K20" s="100" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L20" s="100"/>
       <c r="M20" s="100"/>
@@ -3976,25 +4017,23 @@
     <row r="21" spans="1:17">
       <c r="A21" s="92" t="str">
         <f t="shared" si="0"/>
-        <v>請求方法</v>
+        <v>種別</v>
       </c>
       <c r="B21" s="92"/>
       <c r="C21" s="92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="92"/>
       <c r="E21" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
       <c r="I21" s="38"/>
-      <c r="J21" s="38" t="s">
-        <v>74</v>
-      </c>
+      <c r="J21" s="38"/>
       <c r="K21" s="100" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L21" s="100"/>
       <c r="M21" s="100"/>
@@ -4004,27 +4043,24 @@
       <c r="Q21" s="100"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="92" t="str">
-        <f t="shared" si="0"/>
-        <v>従量電灯A</v>
+      <c r="A22" s="92" t="s">
+        <v>77</v>
       </c>
       <c r="B22" s="92"/>
       <c r="C22" s="92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="92"/>
       <c r="E22" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
       <c r="I22" s="38"/>
-      <c r="J22" s="38" t="s">
-        <v>74</v>
-      </c>
+      <c r="J22" s="38"/>
       <c r="K22" s="100" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="L22" s="100"/>
       <c r="M22" s="100"/>
@@ -4036,25 +4072,25 @@
     <row r="23" spans="1:17">
       <c r="A23" s="92" t="str">
         <f t="shared" si="0"/>
-        <v>水道</v>
+        <v>面積単価</v>
       </c>
       <c r="B23" s="92"/>
       <c r="C23" s="92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="92"/>
       <c r="E23" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="38"/>
       <c r="I23" s="38"/>
       <c r="J23" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K23" s="100" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L23" s="100"/>
       <c r="M23" s="100"/>
@@ -4066,25 +4102,25 @@
     <row r="24" spans="1:17">
       <c r="A24" s="92" t="str">
         <f t="shared" si="0"/>
-        <v>業務用電力</v>
+        <v>請求方法</v>
       </c>
       <c r="B24" s="92"/>
       <c r="C24" s="92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" s="92"/>
       <c r="E24" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
       <c r="I24" s="38"/>
       <c r="J24" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K24" s="100" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L24" s="100"/>
       <c r="M24" s="100"/>
@@ -4096,23 +4132,25 @@
     <row r="25" spans="1:17">
       <c r="A25" s="92" t="str">
         <f t="shared" si="0"/>
-        <v>下水道</v>
+        <v>従量電灯A</v>
       </c>
       <c r="B25" s="92"/>
       <c r="C25" s="92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" s="92"/>
       <c r="E25" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="38"/>
       <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
+      <c r="J25" s="38" t="s">
+        <v>73</v>
+      </c>
       <c r="K25" s="100" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L25" s="100"/>
       <c r="M25" s="100"/>
@@ -4124,23 +4162,25 @@
     <row r="26" spans="1:17">
       <c r="A26" s="92" t="str">
         <f t="shared" si="0"/>
-        <v>バックアップ</v>
+        <v>水道</v>
       </c>
       <c r="B26" s="92"/>
       <c r="C26" s="92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" s="92"/>
       <c r="E26" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
       <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
+      <c r="J26" s="38" t="s">
+        <v>73</v>
+      </c>
       <c r="K26" s="100" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L26" s="100"/>
       <c r="M26" s="100"/>
@@ -4152,23 +4192,25 @@
     <row r="27" spans="1:17">
       <c r="A27" s="92" t="str">
         <f t="shared" si="0"/>
-        <v>システム</v>
+        <v>業務用電力</v>
       </c>
       <c r="B27" s="92"/>
       <c r="C27" s="92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" s="92"/>
       <c r="E27" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
+      <c r="J27" s="38" t="s">
+        <v>73</v>
+      </c>
       <c r="K27" s="100" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L27" s="100"/>
       <c r="M27" s="100"/>
@@ -4178,17 +4220,26 @@
       <c r="Q27" s="100"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="92"/>
+      <c r="A28" s="92" t="str">
+        <f t="shared" si="0"/>
+        <v>下水道</v>
+      </c>
       <c r="B28" s="92"/>
-      <c r="C28" s="92"/>
+      <c r="C28" s="92" t="s">
+        <v>46</v>
+      </c>
       <c r="D28" s="92"/>
-      <c r="E28" s="40"/>
+      <c r="E28" s="40" t="s">
+        <v>47</v>
+      </c>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
       <c r="I28" s="38"/>
       <c r="J28" s="38"/>
-      <c r="K28" s="100"/>
+      <c r="K28" s="100" t="s">
+        <v>70</v>
+      </c>
       <c r="L28" s="100"/>
       <c r="M28" s="100"/>
       <c r="N28" s="100"/>
@@ -4197,17 +4248,26 @@
       <c r="Q28" s="100"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="92"/>
+      <c r="A29" s="92" t="str">
+        <f t="shared" si="0"/>
+        <v>バックアップ</v>
+      </c>
       <c r="B29" s="92"/>
-      <c r="C29" s="92"/>
+      <c r="C29" s="92" t="s">
+        <v>46</v>
+      </c>
       <c r="D29" s="92"/>
-      <c r="E29" s="40"/>
+      <c r="E29" s="40" t="s">
+        <v>47</v>
+      </c>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="38"/>
       <c r="I29" s="38"/>
       <c r="J29" s="38"/>
-      <c r="K29" s="100"/>
+      <c r="K29" s="100" t="s">
+        <v>71</v>
+      </c>
       <c r="L29" s="100"/>
       <c r="M29" s="100"/>
       <c r="N29" s="100"/>
@@ -4216,51 +4276,126 @@
       <c r="Q29" s="100"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="101"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
+      <c r="A30" s="92" t="str">
+        <f t="shared" si="0"/>
+        <v>システム</v>
+      </c>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="92"/>
+      <c r="E30" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="100" t="s">
+        <v>72</v>
+      </c>
+      <c r="L30" s="100"/>
+      <c r="M30" s="100"/>
+      <c r="N30" s="100"/>
+      <c r="O30" s="100"/>
+      <c r="P30" s="100"/>
+      <c r="Q30" s="100"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="92"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="100"/>
+      <c r="N31" s="100"/>
+      <c r="O31" s="100"/>
+      <c r="P31" s="100"/>
+      <c r="Q31" s="100"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="92"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="100"/>
+      <c r="Q32" s="100"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="101"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="101"/>
     </row>
   </sheetData>
-  <mergeCells count="84">
+  <mergeCells count="93">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="K27:Q27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="K25:Q25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="K20:Q20"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="K25:Q25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="K9:Q9"/>
@@ -4269,18 +4404,18 @@
     <mergeCell ref="K10:Q10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="K23:Q23"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="K21:Q21"/>
     <mergeCell ref="K11:Q11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:D12"/>
@@ -4333,7 +4468,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="93"/>
       <c r="C1" s="94" t="s">
@@ -4342,7 +4477,7 @@
       <c r="D1" s="95"/>
       <c r="E1" s="96"/>
       <c r="F1" s="97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G1" s="98"/>
       <c r="H1" s="98"/>
@@ -4391,11 +4526,11 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="92" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="92"/>
       <c r="C4" s="92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="92"/>
       <c r="E4" s="92"/>
@@ -4414,7 +4549,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="107"/>
@@ -4511,11 +4646,11 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="42"/>
       <c r="C10" s="107" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="108"/>
       <c r="E10" s="108"/>
@@ -4804,7 +4939,7 @@
       </c>
       <c r="B25" s="42"/>
       <c r="C25" s="107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="108"/>
       <c r="E25" s="108"/>
